--- a/data/73/benchmark/Neo4J.xlsx
+++ b/data/73/benchmark/Neo4J.xlsx
@@ -448,16 +448,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C2" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D2" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -468,15 +468,15 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -496,32 +496,32 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -574,16 +574,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -633,13 +633,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -658,13 +658,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -714,16 +714,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -737,18 +737,18 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -779,12 +779,12 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -829,13 +829,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -868,13 +868,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -923,16 +923,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -954,10 +954,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -971,10 +971,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -982,13 +982,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -1030,40 +1030,40 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -1072,18 +1072,18 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -1111,21 +1111,21 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1170,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1178,13 +1178,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -1212,15 +1212,15 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -1231,21 +1231,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1259,13 +1259,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1276,13 +1276,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1293,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1315,10 +1315,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -1335,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
@@ -1343,13 +1343,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>2</v>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
         <v>20</v>
@@ -1412,24 +1412,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
         <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1443,13 +1443,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1457,13 +1457,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1477,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1491,12 +1491,12 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1513,10 +1513,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -1533,18 +1533,18 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>3</v>
@@ -1552,21 +1552,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
@@ -1575,12 +1575,12 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -1589,12 +1589,12 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -1603,18 +1603,18 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -1639,24 +1639,24 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
@@ -1664,16 +1664,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
@@ -1701,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1712,49 +1712,49 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
@@ -1765,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -1782,43 +1782,43 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>2</v>
@@ -1827,7 +1827,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1873,21 +1873,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -1935,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1946,10 +1946,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1971,13 +1971,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -1988,13 +1988,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2027,10 +2027,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2058,21 +2058,21 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -2106,18 +2106,18 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2142,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2170,10 +2170,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2198,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
